--- a/xG/Atalanta_matches_2020.xlsx
+++ b/xG/Atalanta_matches_2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="58">
   <si>
     <t>home</t>
   </si>
@@ -52,18 +52,18 @@
     <t>Spezia</t>
   </si>
   <si>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>Bologna</t>
+  </si>
+  <si>
+    <t>Benevento</t>
+  </si>
+  <si>
     <t>Udinese</t>
   </si>
   <si>
-    <t>Juventus</t>
-  </si>
-  <si>
-    <t>Bologna</t>
-  </si>
-  <si>
-    <t>Benevento</t>
-  </si>
-  <si>
     <t>AC Milan</t>
   </si>
   <si>
@@ -118,6 +118,21 @@
     <t>0.594898</t>
   </si>
   <si>
+    <t>1.20139</t>
+  </si>
+  <si>
+    <t>2.8038</t>
+  </si>
+  <si>
+    <t>2.71039</t>
+  </si>
+  <si>
+    <t>1.91426</t>
+  </si>
+  <si>
+    <t>1.08799</t>
+  </si>
+  <si>
     <t>2.47087</t>
   </si>
   <si>
@@ -140,6 +155,21 @@
   </si>
   <si>
     <t>2.20038</t>
+  </si>
+  <si>
+    <t>1.78911</t>
+  </si>
+  <si>
+    <t>0.461794</t>
+  </si>
+  <si>
+    <t>0.902039</t>
+  </si>
+  <si>
+    <t>0.712758</t>
+  </si>
+  <si>
+    <t>1.89381</t>
   </si>
   <si>
     <t>2</t>
@@ -555,13 +585,13 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -578,13 +608,13 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -601,13 +631,13 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -624,13 +654,13 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -647,13 +677,13 @@
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -670,13 +700,13 @@
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -693,13 +723,13 @@
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -716,13 +746,13 @@
         <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -734,6 +764,18 @@
       </c>
       <c r="C10" t="s">
         <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -741,10 +783,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -752,10 +806,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -763,10 +829,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -774,10 +852,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -785,10 +875,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -799,7 +889,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -807,10 +897,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -818,10 +908,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -829,10 +919,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -953,7 +1043,7 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -975,7 +1065,7 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -997,7 +1087,7 @@
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1030,7 +1120,7 @@
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:3">
